--- a/Mifos Automation Excels/Client/3068-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-DISBURSE-FEE-FLAT-Regular-UPFRONT-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/3068-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-DISBURSE-FEE-FLAT-Regular-UPFRONT-Newcreateloan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="Acc_Disbursement" sheetId="6" r:id="rId5"/>
     <sheet name="Acc_Repaymentdisbursement" sheetId="7" r:id="rId6"/>
     <sheet name="Acc_Upfront" sheetId="8" r:id="rId7"/>
+    <sheet name="Acc_Upfront1" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="74">
   <si>
     <t>#</t>
   </si>
@@ -70,9 +71,6 @@
     <t>Disbursement</t>
   </si>
   <si>
-    <t>Transaction Type</t>
-  </si>
-  <si>
     <t>Original</t>
   </si>
   <si>
@@ -239,13 +237,19 @@
   </si>
   <si>
     <t>$ 685.07</t>
+  </si>
+  <si>
+    <t>TransactionType</t>
+  </si>
+  <si>
+    <t>Fees Receivable(4)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,6 +280,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -355,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -402,6 +414,9 @@
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -718,23 +733,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="7">
         <v>42005</v>
@@ -742,7 +757,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="7">
         <v>42005</v>
@@ -750,7 +765,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="9">
         <v>10000</v>
@@ -758,15 +773,15 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="7">
         <v>42005</v>
@@ -774,7 +789,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="11">
         <v>10000</v>
@@ -782,23 +797,23 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="7">
         <v>42005</v>
@@ -806,23 +821,23 @@
     </row>
     <row r="12" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="7">
         <v>42005</v>
@@ -830,10 +845,10 @@
     </row>
     <row r="15" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -862,22 +877,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -967,7 +982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
@@ -1643,15 +1658,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.140625" style="4" bestFit="1" customWidth="1"/>
@@ -1664,50 +1679,52 @@
     <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
-        <v>34</v>
+        <v>234</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="13">
         <v>42005</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" s="12">
         <v>685.07</v>
@@ -1732,16 +1749,16 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
-        <v>30</v>
+        <v>233</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="13">
         <v>42005</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" s="12">
         <v>100</v>
@@ -1766,37 +1783,71 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>29</v>
+        <v>232</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="13">
         <v>42005</v>
       </c>
       <c r="D4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="12">
+        <v>100</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12">
+        <v>100</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0</v>
+      </c>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>231</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="13">
+        <v>42005</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E5" s="14">
         <v>10000</v>
       </c>
-      <c r="F4" s="12">
-        <v>0</v>
-      </c>
-      <c r="G4" s="12">
-        <v>0</v>
-      </c>
-      <c r="H4" s="12">
-        <v>0</v>
-      </c>
-      <c r="I4" s="12">
-        <v>0</v>
-      </c>
-      <c r="J4" s="14">
+      <c r="F5" s="12">
+        <v>0</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
+      <c r="J5" s="14">
         <v>10000</v>
       </c>
-      <c r="K4"/>
-      <c r="L4"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1808,38 +1859,38 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>58</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1847,25 +1898,25 @@
         <v>13</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="19">
         <v>42005</v>
       </c>
       <c r="D2" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="F2" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="G2" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>63</v>
-      </c>
       <c r="H2" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1873,25 +1924,25 @@
         <v>14</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="19">
         <v>42005</v>
       </c>
       <c r="D3" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="F3" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="18" t="s">
-        <v>62</v>
-      </c>
       <c r="G3" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1904,38 +1955,38 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>58</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1943,25 +1994,25 @@
         <v>1349</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="19">
         <v>42005</v>
       </c>
       <c r="D2" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="F2" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>67</v>
-      </c>
       <c r="I2" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1969,25 +2020,25 @@
         <v>1350</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="19">
         <v>42005</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="18" t="s">
-        <v>62</v>
-      </c>
       <c r="G3" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2000,38 +2051,38 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection sqref="A1:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="20" t="s">
         <v>58</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2039,7 +2090,7 @@
         <v>1366</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="22">
         <v>42095</v>
@@ -2048,16 +2099,16 @@
         <v>1</v>
       </c>
       <c r="E2" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="21" t="s">
-        <v>62</v>
-      </c>
       <c r="G2" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2065,7 +2116,7 @@
         <v>1367</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="22">
         <v>42095</v>
@@ -2074,17 +2125,118 @@
         <v>1</v>
       </c>
       <c r="E3" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="21">
+        <v>1366</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="22">
+        <v>42095</v>
+      </c>
+      <c r="D2" s="21">
+        <v>1</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
         <v>66</v>
       </c>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="21">
+        <v>1367</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="22">
+        <v>42095</v>
+      </c>
+      <c r="D3" s="21">
+        <v>1</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>65</v>
+      </c>
       <c r="F3" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" t="s">
-        <v>72</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
